--- a/en/サンプルプロジェクト/設計書/B1_Customer_Management_System/030_Application_Design/010_System_Functional_Design/System_Function_Design_Document(Web_Services)_B_10101_Search_Customer.xlsx
+++ b/en/サンプルプロジェクト/設計書/B1_Customer_Management_System/030_Application_Design/010_System_Functional_Design/System_Function_Design_Document(Web_Services)_B_10101_Search_Customer.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{A6D3541B-4EF0-41C0-9A94-0BE1B1229E24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351979AC-833B-46DE-9FAD-AFCC65E30ADC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="36" state="hidden" r:id="rId1"/>
@@ -43,141 +43,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{8A23D409-3D8A-462A-841A-C3B955E3B9C4}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Nablarchでの「取引」は「subfunction」としてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{8CC5D4BB-3F13-440C-AF24-2CEB892C4A25}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Nablarchでの「取引」は「subfunction」としてください。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{09418F04-EE42-42CF-89CD-24838D2249BF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Nablarchでの「取引」は「subfunction」としてください。
-他のセルも同様に修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="V26" authorId="0" shapeId="0" xr:uid="{A8A9563F-1F2D-4350-8237-536364FF014E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「取引」は「subfunction」としてください。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="156">
   <si>
@@ -434,9 +299,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Mandatory</t>
-  </si>
-  <si>
     <t>Domain name</t>
   </si>
   <si>
@@ -661,6 +523,10 @@
   </si>
   <si>
     <t>Subfunction summary</t>
+  </si>
+  <si>
+    <t>Required</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -671,7 +537,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -818,21 +684,6 @@
       <color indexed="55"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3304,8 +3155,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5876925" y="5041900"/>
-          <a:ext cx="603250" cy="339725"/>
+          <a:off x="5943600" y="5238750"/>
+          <a:ext cx="609600" cy="352425"/>
           <a:chOff x="454" y="733"/>
           <a:chExt cx="64" cy="39"/>
         </a:xfrm>
@@ -3761,8 +3612,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7600950" y="4603750"/>
-          <a:ext cx="676275" cy="349250"/>
+          <a:off x="7686675" y="4781550"/>
+          <a:ext cx="685800" cy="361950"/>
           <a:chOff x="537" y="600"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -3986,8 +3837,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7600950" y="5060950"/>
-          <a:ext cx="676275" cy="349250"/>
+          <a:off x="7686675" y="5257800"/>
+          <a:ext cx="685800" cy="361950"/>
           <a:chOff x="536" y="660"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -4390,8 +4241,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4219575" y="4175125"/>
-          <a:ext cx="142875" cy="155575"/>
+          <a:off x="4267200" y="4333875"/>
+          <a:ext cx="142875" cy="161925"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -5736,42 +5587,42 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -5782,7 +5633,7 @@
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -5791,7 +5642,7 @@
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1">
+    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -5803,7 +5654,7 @@
       <c r="K25" s="162"/>
       <c r="L25" s="24"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -5812,7 +5663,7 @@
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -5821,7 +5672,7 @@
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="7"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -5830,7 +5681,7 @@
       <c r="K28" s="24"/>
       <c r="L28" s="24"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1">
+    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="24"/>
@@ -5838,7 +5689,7 @@
       <c r="K29" s="24"/>
       <c r="L29" s="24"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="5"/>
       <c r="G30" s="8"/>
       <c r="H30" s="5"/>
@@ -5847,7 +5698,7 @@
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="5"/>
       <c r="G31" s="8"/>
       <c r="H31" s="5"/>
@@ -5856,7 +5707,7 @@
       <c r="K31" s="24"/>
       <c r="L31" s="24"/>
     </row>
-    <row r="32" spans="6:12" ht="19">
+    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="5"/>
       <c r="G32" s="8"/>
       <c r="H32" s="5"/>
@@ -5865,7 +5716,7 @@
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
     </row>
-    <row r="33" spans="6:19" ht="19">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="24"/>
@@ -5877,7 +5728,7 @@
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="6:19" ht="19">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="24"/>
@@ -5892,515 +5743,515 @@
       <c r="R34" s="29"/>
       <c r="S34" s="29"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="29"/>
       <c r="R35" s="29"/>
       <c r="S35" s="29"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="30"/>
       <c r="P36" s="29"/>
       <c r="Q36" s="30"/>
       <c r="R36" s="29"/>
       <c r="S36" s="27"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="31"/>
       <c r="P37" s="32"/>
       <c r="Q37" s="31"/>
       <c r="R37" s="32"/>
       <c r="S37" s="31"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="32"/>
       <c r="P38" s="32"/>
       <c r="Q38" s="32"/>
       <c r="R38" s="32"/>
       <c r="S38" s="32"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="32"/>
       <c r="P39" s="32"/>
       <c r="Q39" s="32"/>
       <c r="R39" s="32"/>
       <c r="S39" s="32"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
-    <row r="513" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -6424,12 +6275,12 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.77734375" style="20"/>
+    <col min="1" max="16384" width="4.83203125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="180" t="s">
         <v>25</v>
       </c>
@@ -6485,7 +6336,7 @@
       <c r="AM1" s="11"/>
       <c r="AN1" s="12"/>
     </row>
-    <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
+    <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="180" t="s">
         <v>31</v>
       </c>
@@ -6539,7 +6390,7 @@
       <c r="AM2" s="11"/>
       <c r="AN2" s="11"/>
     </row>
-    <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
+    <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="180" t="s">
         <v>34</v>
       </c>
@@ -6585,7 +6436,7 @@
       <c r="AM3" s="11"/>
       <c r="AN3" s="11"/>
     </row>
-    <row r="5" spans="1:40" s="14" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:40" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N5" s="15" t="s">
         <v>36</v>
       </c>
@@ -6599,7 +6450,7 @@
       <c r="AH5" s="23"/>
       <c r="AI5" s="23"/>
     </row>
-    <row r="6" spans="1:40" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:40" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N6" s="15"/>
       <c r="AA6" s="23"/>
       <c r="AB6" s="23"/>
@@ -6611,7 +6462,7 @@
       <c r="AH6" s="23"/>
       <c r="AI6" s="23"/>
     </row>
-    <row r="7" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>37</v>
       </c>
@@ -6662,7 +6513,7 @@
       <c r="AH7" s="172"/>
       <c r="AI7" s="171"/>
     </row>
-    <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1">
+    <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="33">
         <v>1</v>
       </c>
@@ -6709,7 +6560,7 @@
       <c r="AH8" s="221"/>
       <c r="AI8" s="222"/>
     </row>
-    <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34"/>
       <c r="B9" s="201"/>
       <c r="C9" s="202"/>
@@ -6746,7 +6597,7 @@
       <c r="AH9" s="208"/>
       <c r="AI9" s="209"/>
     </row>
-    <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34"/>
       <c r="B10" s="201"/>
       <c r="C10" s="202"/>
@@ -6783,7 +6634,7 @@
       <c r="AH10" s="208"/>
       <c r="AI10" s="209"/>
     </row>
-    <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="34"/>
       <c r="B11" s="201"/>
       <c r="C11" s="202"/>
@@ -6820,7 +6671,7 @@
       <c r="AH11" s="208"/>
       <c r="AI11" s="209"/>
     </row>
-    <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="34"/>
       <c r="B12" s="201"/>
       <c r="C12" s="202"/>
@@ -6857,7 +6708,7 @@
       <c r="AH12" s="208"/>
       <c r="AI12" s="209"/>
     </row>
-    <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="34"/>
       <c r="B13" s="201"/>
       <c r="C13" s="202"/>
@@ -6894,7 +6745,7 @@
       <c r="AH13" s="208"/>
       <c r="AI13" s="209"/>
     </row>
-    <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="34"/>
       <c r="B14" s="201"/>
       <c r="C14" s="202"/>
@@ -6931,7 +6782,7 @@
       <c r="AH14" s="208"/>
       <c r="AI14" s="209"/>
     </row>
-    <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
       <c r="B15" s="201"/>
       <c r="C15" s="202"/>
@@ -6968,7 +6819,7 @@
       <c r="AH15" s="208"/>
       <c r="AI15" s="209"/>
     </row>
-    <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="34"/>
       <c r="B16" s="201"/>
       <c r="C16" s="202"/>
@@ -7005,7 +6856,7 @@
       <c r="AH16" s="208"/>
       <c r="AI16" s="209"/>
     </row>
-    <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="34"/>
       <c r="B17" s="201"/>
       <c r="C17" s="202"/>
@@ -7042,7 +6893,7 @@
       <c r="AH17" s="208"/>
       <c r="AI17" s="209"/>
     </row>
-    <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="34"/>
       <c r="B18" s="201"/>
       <c r="C18" s="202"/>
@@ -7079,7 +6930,7 @@
       <c r="AH18" s="208"/>
       <c r="AI18" s="209"/>
     </row>
-    <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="34"/>
       <c r="B19" s="201"/>
       <c r="C19" s="202"/>
@@ -7116,7 +6967,7 @@
       <c r="AH19" s="208"/>
       <c r="AI19" s="209"/>
     </row>
-    <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="34"/>
       <c r="B20" s="201"/>
       <c r="C20" s="202"/>
@@ -7153,7 +7004,7 @@
       <c r="AH20" s="208"/>
       <c r="AI20" s="209"/>
     </row>
-    <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="34"/>
       <c r="B21" s="201"/>
       <c r="C21" s="202"/>
@@ -7190,7 +7041,7 @@
       <c r="AH21" s="208"/>
       <c r="AI21" s="209"/>
     </row>
-    <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="34"/>
       <c r="B22" s="201"/>
       <c r="C22" s="202"/>
@@ -7227,7 +7078,7 @@
       <c r="AH22" s="208"/>
       <c r="AI22" s="209"/>
     </row>
-    <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="34"/>
       <c r="B23" s="201"/>
       <c r="C23" s="202"/>
@@ -7264,7 +7115,7 @@
       <c r="AH23" s="208"/>
       <c r="AI23" s="209"/>
     </row>
-    <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="34"/>
       <c r="B24" s="201"/>
       <c r="C24" s="202"/>
@@ -7301,7 +7152,7 @@
       <c r="AH24" s="208"/>
       <c r="AI24" s="209"/>
     </row>
-    <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="34"/>
       <c r="B25" s="201"/>
       <c r="C25" s="202"/>
@@ -7338,7 +7189,7 @@
       <c r="AH25" s="208"/>
       <c r="AI25" s="209"/>
     </row>
-    <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="34"/>
       <c r="B26" s="201"/>
       <c r="C26" s="202"/>
@@ -7375,7 +7226,7 @@
       <c r="AH26" s="208"/>
       <c r="AI26" s="209"/>
     </row>
-    <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="34"/>
       <c r="B27" s="201"/>
       <c r="C27" s="202"/>
@@ -7412,7 +7263,7 @@
       <c r="AH27" s="208"/>
       <c r="AI27" s="209"/>
     </row>
-    <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="34"/>
       <c r="B28" s="201"/>
       <c r="C28" s="202"/>
@@ -7449,7 +7300,7 @@
       <c r="AH28" s="208"/>
       <c r="AI28" s="209"/>
     </row>
-    <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="34"/>
       <c r="B29" s="201"/>
       <c r="C29" s="202"/>
@@ -7486,7 +7337,7 @@
       <c r="AH29" s="208"/>
       <c r="AI29" s="209"/>
     </row>
-    <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="34"/>
       <c r="B30" s="201"/>
       <c r="C30" s="202"/>
@@ -7523,7 +7374,7 @@
       <c r="AH30" s="208"/>
       <c r="AI30" s="209"/>
     </row>
-    <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="34"/>
       <c r="B31" s="201"/>
       <c r="C31" s="202"/>
@@ -7560,7 +7411,7 @@
       <c r="AH31" s="208"/>
       <c r="AI31" s="209"/>
     </row>
-    <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="34"/>
       <c r="B32" s="201"/>
       <c r="C32" s="202"/>
@@ -7597,7 +7448,7 @@
       <c r="AH32" s="208"/>
       <c r="AI32" s="209"/>
     </row>
-    <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="34"/>
       <c r="B33" s="201"/>
       <c r="C33" s="202"/>
@@ -7634,7 +7485,7 @@
       <c r="AH33" s="208"/>
       <c r="AI33" s="209"/>
     </row>
-    <row r="34" spans="1:35" ht="14">
+    <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="21"/>
     </row>
   </sheetData>
@@ -7827,152 +7678,152 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.77734375" style="114" customWidth="1"/>
-    <col min="17" max="17" width="4.77734375" style="134" customWidth="1"/>
-    <col min="18" max="33" width="4.77734375" style="114" customWidth="1"/>
-    <col min="34" max="34" width="4.77734375" style="134" customWidth="1"/>
-    <col min="35" max="256" width="4.77734375" style="114"/>
-    <col min="257" max="290" width="4.77734375" style="114" customWidth="1"/>
-    <col min="291" max="512" width="4.77734375" style="114"/>
-    <col min="513" max="546" width="4.77734375" style="114" customWidth="1"/>
-    <col min="547" max="768" width="4.77734375" style="114"/>
-    <col min="769" max="802" width="4.77734375" style="114" customWidth="1"/>
-    <col min="803" max="1024" width="4.77734375" style="114"/>
-    <col min="1025" max="1058" width="4.77734375" style="114" customWidth="1"/>
-    <col min="1059" max="1280" width="4.77734375" style="114"/>
-    <col min="1281" max="1314" width="4.77734375" style="114" customWidth="1"/>
-    <col min="1315" max="1536" width="4.77734375" style="114"/>
-    <col min="1537" max="1570" width="4.77734375" style="114" customWidth="1"/>
-    <col min="1571" max="1792" width="4.77734375" style="114"/>
-    <col min="1793" max="1826" width="4.77734375" style="114" customWidth="1"/>
-    <col min="1827" max="2048" width="4.77734375" style="114"/>
-    <col min="2049" max="2082" width="4.77734375" style="114" customWidth="1"/>
-    <col min="2083" max="2304" width="4.77734375" style="114"/>
-    <col min="2305" max="2338" width="4.77734375" style="114" customWidth="1"/>
-    <col min="2339" max="2560" width="4.77734375" style="114"/>
-    <col min="2561" max="2594" width="4.77734375" style="114" customWidth="1"/>
-    <col min="2595" max="2816" width="4.77734375" style="114"/>
-    <col min="2817" max="2850" width="4.77734375" style="114" customWidth="1"/>
-    <col min="2851" max="3072" width="4.77734375" style="114"/>
-    <col min="3073" max="3106" width="4.77734375" style="114" customWidth="1"/>
-    <col min="3107" max="3328" width="4.77734375" style="114"/>
-    <col min="3329" max="3362" width="4.77734375" style="114" customWidth="1"/>
-    <col min="3363" max="3584" width="4.77734375" style="114"/>
-    <col min="3585" max="3618" width="4.77734375" style="114" customWidth="1"/>
-    <col min="3619" max="3840" width="4.77734375" style="114"/>
-    <col min="3841" max="3874" width="4.77734375" style="114" customWidth="1"/>
-    <col min="3875" max="4096" width="4.77734375" style="114"/>
-    <col min="4097" max="4130" width="4.77734375" style="114" customWidth="1"/>
-    <col min="4131" max="4352" width="4.77734375" style="114"/>
-    <col min="4353" max="4386" width="4.77734375" style="114" customWidth="1"/>
-    <col min="4387" max="4608" width="4.77734375" style="114"/>
-    <col min="4609" max="4642" width="4.77734375" style="114" customWidth="1"/>
-    <col min="4643" max="4864" width="4.77734375" style="114"/>
-    <col min="4865" max="4898" width="4.77734375" style="114" customWidth="1"/>
-    <col min="4899" max="5120" width="4.77734375" style="114"/>
-    <col min="5121" max="5154" width="4.77734375" style="114" customWidth="1"/>
-    <col min="5155" max="5376" width="4.77734375" style="114"/>
-    <col min="5377" max="5410" width="4.77734375" style="114" customWidth="1"/>
-    <col min="5411" max="5632" width="4.77734375" style="114"/>
-    <col min="5633" max="5666" width="4.77734375" style="114" customWidth="1"/>
-    <col min="5667" max="5888" width="4.77734375" style="114"/>
-    <col min="5889" max="5922" width="4.77734375" style="114" customWidth="1"/>
-    <col min="5923" max="6144" width="4.77734375" style="114"/>
-    <col min="6145" max="6178" width="4.77734375" style="114" customWidth="1"/>
-    <col min="6179" max="6400" width="4.77734375" style="114"/>
-    <col min="6401" max="6434" width="4.77734375" style="114" customWidth="1"/>
-    <col min="6435" max="6656" width="4.77734375" style="114"/>
-    <col min="6657" max="6690" width="4.77734375" style="114" customWidth="1"/>
-    <col min="6691" max="6912" width="4.77734375" style="114"/>
-    <col min="6913" max="6946" width="4.77734375" style="114" customWidth="1"/>
-    <col min="6947" max="7168" width="4.77734375" style="114"/>
-    <col min="7169" max="7202" width="4.77734375" style="114" customWidth="1"/>
-    <col min="7203" max="7424" width="4.77734375" style="114"/>
-    <col min="7425" max="7458" width="4.77734375" style="114" customWidth="1"/>
-    <col min="7459" max="7680" width="4.77734375" style="114"/>
-    <col min="7681" max="7714" width="4.77734375" style="114" customWidth="1"/>
-    <col min="7715" max="7936" width="4.77734375" style="114"/>
-    <col min="7937" max="7970" width="4.77734375" style="114" customWidth="1"/>
-    <col min="7971" max="8192" width="4.77734375" style="114"/>
-    <col min="8193" max="8226" width="4.77734375" style="114" customWidth="1"/>
-    <col min="8227" max="8448" width="4.77734375" style="114"/>
-    <col min="8449" max="8482" width="4.77734375" style="114" customWidth="1"/>
-    <col min="8483" max="8704" width="4.77734375" style="114"/>
-    <col min="8705" max="8738" width="4.77734375" style="114" customWidth="1"/>
-    <col min="8739" max="8960" width="4.77734375" style="114"/>
-    <col min="8961" max="8994" width="4.77734375" style="114" customWidth="1"/>
-    <col min="8995" max="9216" width="4.77734375" style="114"/>
-    <col min="9217" max="9250" width="4.77734375" style="114" customWidth="1"/>
-    <col min="9251" max="9472" width="4.77734375" style="114"/>
-    <col min="9473" max="9506" width="4.77734375" style="114" customWidth="1"/>
-    <col min="9507" max="9728" width="4.77734375" style="114"/>
-    <col min="9729" max="9762" width="4.77734375" style="114" customWidth="1"/>
-    <col min="9763" max="9984" width="4.77734375" style="114"/>
-    <col min="9985" max="10018" width="4.77734375" style="114" customWidth="1"/>
-    <col min="10019" max="10240" width="4.77734375" style="114"/>
-    <col min="10241" max="10274" width="4.77734375" style="114" customWidth="1"/>
-    <col min="10275" max="10496" width="4.77734375" style="114"/>
-    <col min="10497" max="10530" width="4.77734375" style="114" customWidth="1"/>
-    <col min="10531" max="10752" width="4.77734375" style="114"/>
-    <col min="10753" max="10786" width="4.77734375" style="114" customWidth="1"/>
-    <col min="10787" max="11008" width="4.77734375" style="114"/>
-    <col min="11009" max="11042" width="4.77734375" style="114" customWidth="1"/>
-    <col min="11043" max="11264" width="4.77734375" style="114"/>
-    <col min="11265" max="11298" width="4.77734375" style="114" customWidth="1"/>
-    <col min="11299" max="11520" width="4.77734375" style="114"/>
-    <col min="11521" max="11554" width="4.77734375" style="114" customWidth="1"/>
-    <col min="11555" max="11776" width="4.77734375" style="114"/>
-    <col min="11777" max="11810" width="4.77734375" style="114" customWidth="1"/>
-    <col min="11811" max="12032" width="4.77734375" style="114"/>
-    <col min="12033" max="12066" width="4.77734375" style="114" customWidth="1"/>
-    <col min="12067" max="12288" width="4.77734375" style="114"/>
-    <col min="12289" max="12322" width="4.77734375" style="114" customWidth="1"/>
-    <col min="12323" max="12544" width="4.77734375" style="114"/>
-    <col min="12545" max="12578" width="4.77734375" style="114" customWidth="1"/>
-    <col min="12579" max="12800" width="4.77734375" style="114"/>
-    <col min="12801" max="12834" width="4.77734375" style="114" customWidth="1"/>
-    <col min="12835" max="13056" width="4.77734375" style="114"/>
-    <col min="13057" max="13090" width="4.77734375" style="114" customWidth="1"/>
-    <col min="13091" max="13312" width="4.77734375" style="114"/>
-    <col min="13313" max="13346" width="4.77734375" style="114" customWidth="1"/>
-    <col min="13347" max="13568" width="4.77734375" style="114"/>
-    <col min="13569" max="13602" width="4.77734375" style="114" customWidth="1"/>
-    <col min="13603" max="13824" width="4.77734375" style="114"/>
-    <col min="13825" max="13858" width="4.77734375" style="114" customWidth="1"/>
-    <col min="13859" max="14080" width="4.77734375" style="114"/>
-    <col min="14081" max="14114" width="4.77734375" style="114" customWidth="1"/>
-    <col min="14115" max="14336" width="4.77734375" style="114"/>
-    <col min="14337" max="14370" width="4.77734375" style="114" customWidth="1"/>
-    <col min="14371" max="14592" width="4.77734375" style="114"/>
-    <col min="14593" max="14626" width="4.77734375" style="114" customWidth="1"/>
-    <col min="14627" max="14848" width="4.77734375" style="114"/>
-    <col min="14849" max="14882" width="4.77734375" style="114" customWidth="1"/>
-    <col min="14883" max="15104" width="4.77734375" style="114"/>
-    <col min="15105" max="15138" width="4.77734375" style="114" customWidth="1"/>
-    <col min="15139" max="15360" width="4.77734375" style="114"/>
-    <col min="15361" max="15394" width="4.77734375" style="114" customWidth="1"/>
-    <col min="15395" max="15616" width="4.77734375" style="114"/>
-    <col min="15617" max="15650" width="4.77734375" style="114" customWidth="1"/>
-    <col min="15651" max="15872" width="4.77734375" style="114"/>
-    <col min="15873" max="15906" width="4.77734375" style="114" customWidth="1"/>
-    <col min="15907" max="16128" width="4.77734375" style="114"/>
-    <col min="16129" max="16162" width="4.77734375" style="114" customWidth="1"/>
-    <col min="16163" max="16384" width="4.77734375" style="114"/>
+    <col min="1" max="16" width="4.83203125" style="114" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="134" customWidth="1"/>
+    <col min="18" max="33" width="4.83203125" style="114" customWidth="1"/>
+    <col min="34" max="34" width="4.83203125" style="134" customWidth="1"/>
+    <col min="35" max="256" width="4.83203125" style="114"/>
+    <col min="257" max="290" width="4.83203125" style="114" customWidth="1"/>
+    <col min="291" max="512" width="4.83203125" style="114"/>
+    <col min="513" max="546" width="4.83203125" style="114" customWidth="1"/>
+    <col min="547" max="768" width="4.83203125" style="114"/>
+    <col min="769" max="802" width="4.83203125" style="114" customWidth="1"/>
+    <col min="803" max="1024" width="4.83203125" style="114"/>
+    <col min="1025" max="1058" width="4.83203125" style="114" customWidth="1"/>
+    <col min="1059" max="1280" width="4.83203125" style="114"/>
+    <col min="1281" max="1314" width="4.83203125" style="114" customWidth="1"/>
+    <col min="1315" max="1536" width="4.83203125" style="114"/>
+    <col min="1537" max="1570" width="4.83203125" style="114" customWidth="1"/>
+    <col min="1571" max="1792" width="4.83203125" style="114"/>
+    <col min="1793" max="1826" width="4.83203125" style="114" customWidth="1"/>
+    <col min="1827" max="2048" width="4.83203125" style="114"/>
+    <col min="2049" max="2082" width="4.83203125" style="114" customWidth="1"/>
+    <col min="2083" max="2304" width="4.83203125" style="114"/>
+    <col min="2305" max="2338" width="4.83203125" style="114" customWidth="1"/>
+    <col min="2339" max="2560" width="4.83203125" style="114"/>
+    <col min="2561" max="2594" width="4.83203125" style="114" customWidth="1"/>
+    <col min="2595" max="2816" width="4.83203125" style="114"/>
+    <col min="2817" max="2850" width="4.83203125" style="114" customWidth="1"/>
+    <col min="2851" max="3072" width="4.83203125" style="114"/>
+    <col min="3073" max="3106" width="4.83203125" style="114" customWidth="1"/>
+    <col min="3107" max="3328" width="4.83203125" style="114"/>
+    <col min="3329" max="3362" width="4.83203125" style="114" customWidth="1"/>
+    <col min="3363" max="3584" width="4.83203125" style="114"/>
+    <col min="3585" max="3618" width="4.83203125" style="114" customWidth="1"/>
+    <col min="3619" max="3840" width="4.83203125" style="114"/>
+    <col min="3841" max="3874" width="4.83203125" style="114" customWidth="1"/>
+    <col min="3875" max="4096" width="4.83203125" style="114"/>
+    <col min="4097" max="4130" width="4.83203125" style="114" customWidth="1"/>
+    <col min="4131" max="4352" width="4.83203125" style="114"/>
+    <col min="4353" max="4386" width="4.83203125" style="114" customWidth="1"/>
+    <col min="4387" max="4608" width="4.83203125" style="114"/>
+    <col min="4609" max="4642" width="4.83203125" style="114" customWidth="1"/>
+    <col min="4643" max="4864" width="4.83203125" style="114"/>
+    <col min="4865" max="4898" width="4.83203125" style="114" customWidth="1"/>
+    <col min="4899" max="5120" width="4.83203125" style="114"/>
+    <col min="5121" max="5154" width="4.83203125" style="114" customWidth="1"/>
+    <col min="5155" max="5376" width="4.83203125" style="114"/>
+    <col min="5377" max="5410" width="4.83203125" style="114" customWidth="1"/>
+    <col min="5411" max="5632" width="4.83203125" style="114"/>
+    <col min="5633" max="5666" width="4.83203125" style="114" customWidth="1"/>
+    <col min="5667" max="5888" width="4.83203125" style="114"/>
+    <col min="5889" max="5922" width="4.83203125" style="114" customWidth="1"/>
+    <col min="5923" max="6144" width="4.83203125" style="114"/>
+    <col min="6145" max="6178" width="4.83203125" style="114" customWidth="1"/>
+    <col min="6179" max="6400" width="4.83203125" style="114"/>
+    <col min="6401" max="6434" width="4.83203125" style="114" customWidth="1"/>
+    <col min="6435" max="6656" width="4.83203125" style="114"/>
+    <col min="6657" max="6690" width="4.83203125" style="114" customWidth="1"/>
+    <col min="6691" max="6912" width="4.83203125" style="114"/>
+    <col min="6913" max="6946" width="4.83203125" style="114" customWidth="1"/>
+    <col min="6947" max="7168" width="4.83203125" style="114"/>
+    <col min="7169" max="7202" width="4.83203125" style="114" customWidth="1"/>
+    <col min="7203" max="7424" width="4.83203125" style="114"/>
+    <col min="7425" max="7458" width="4.83203125" style="114" customWidth="1"/>
+    <col min="7459" max="7680" width="4.83203125" style="114"/>
+    <col min="7681" max="7714" width="4.83203125" style="114" customWidth="1"/>
+    <col min="7715" max="7936" width="4.83203125" style="114"/>
+    <col min="7937" max="7970" width="4.83203125" style="114" customWidth="1"/>
+    <col min="7971" max="8192" width="4.83203125" style="114"/>
+    <col min="8193" max="8226" width="4.83203125" style="114" customWidth="1"/>
+    <col min="8227" max="8448" width="4.83203125" style="114"/>
+    <col min="8449" max="8482" width="4.83203125" style="114" customWidth="1"/>
+    <col min="8483" max="8704" width="4.83203125" style="114"/>
+    <col min="8705" max="8738" width="4.83203125" style="114" customWidth="1"/>
+    <col min="8739" max="8960" width="4.83203125" style="114"/>
+    <col min="8961" max="8994" width="4.83203125" style="114" customWidth="1"/>
+    <col min="8995" max="9216" width="4.83203125" style="114"/>
+    <col min="9217" max="9250" width="4.83203125" style="114" customWidth="1"/>
+    <col min="9251" max="9472" width="4.83203125" style="114"/>
+    <col min="9473" max="9506" width="4.83203125" style="114" customWidth="1"/>
+    <col min="9507" max="9728" width="4.83203125" style="114"/>
+    <col min="9729" max="9762" width="4.83203125" style="114" customWidth="1"/>
+    <col min="9763" max="9984" width="4.83203125" style="114"/>
+    <col min="9985" max="10018" width="4.83203125" style="114" customWidth="1"/>
+    <col min="10019" max="10240" width="4.83203125" style="114"/>
+    <col min="10241" max="10274" width="4.83203125" style="114" customWidth="1"/>
+    <col min="10275" max="10496" width="4.83203125" style="114"/>
+    <col min="10497" max="10530" width="4.83203125" style="114" customWidth="1"/>
+    <col min="10531" max="10752" width="4.83203125" style="114"/>
+    <col min="10753" max="10786" width="4.83203125" style="114" customWidth="1"/>
+    <col min="10787" max="11008" width="4.83203125" style="114"/>
+    <col min="11009" max="11042" width="4.83203125" style="114" customWidth="1"/>
+    <col min="11043" max="11264" width="4.83203125" style="114"/>
+    <col min="11265" max="11298" width="4.83203125" style="114" customWidth="1"/>
+    <col min="11299" max="11520" width="4.83203125" style="114"/>
+    <col min="11521" max="11554" width="4.83203125" style="114" customWidth="1"/>
+    <col min="11555" max="11776" width="4.83203125" style="114"/>
+    <col min="11777" max="11810" width="4.83203125" style="114" customWidth="1"/>
+    <col min="11811" max="12032" width="4.83203125" style="114"/>
+    <col min="12033" max="12066" width="4.83203125" style="114" customWidth="1"/>
+    <col min="12067" max="12288" width="4.83203125" style="114"/>
+    <col min="12289" max="12322" width="4.83203125" style="114" customWidth="1"/>
+    <col min="12323" max="12544" width="4.83203125" style="114"/>
+    <col min="12545" max="12578" width="4.83203125" style="114" customWidth="1"/>
+    <col min="12579" max="12800" width="4.83203125" style="114"/>
+    <col min="12801" max="12834" width="4.83203125" style="114" customWidth="1"/>
+    <col min="12835" max="13056" width="4.83203125" style="114"/>
+    <col min="13057" max="13090" width="4.83203125" style="114" customWidth="1"/>
+    <col min="13091" max="13312" width="4.83203125" style="114"/>
+    <col min="13313" max="13346" width="4.83203125" style="114" customWidth="1"/>
+    <col min="13347" max="13568" width="4.83203125" style="114"/>
+    <col min="13569" max="13602" width="4.83203125" style="114" customWidth="1"/>
+    <col min="13603" max="13824" width="4.83203125" style="114"/>
+    <col min="13825" max="13858" width="4.83203125" style="114" customWidth="1"/>
+    <col min="13859" max="14080" width="4.83203125" style="114"/>
+    <col min="14081" max="14114" width="4.83203125" style="114" customWidth="1"/>
+    <col min="14115" max="14336" width="4.83203125" style="114"/>
+    <col min="14337" max="14370" width="4.83203125" style="114" customWidth="1"/>
+    <col min="14371" max="14592" width="4.83203125" style="114"/>
+    <col min="14593" max="14626" width="4.83203125" style="114" customWidth="1"/>
+    <col min="14627" max="14848" width="4.83203125" style="114"/>
+    <col min="14849" max="14882" width="4.83203125" style="114" customWidth="1"/>
+    <col min="14883" max="15104" width="4.83203125" style="114"/>
+    <col min="15105" max="15138" width="4.83203125" style="114" customWidth="1"/>
+    <col min="15139" max="15360" width="4.83203125" style="114"/>
+    <col min="15361" max="15394" width="4.83203125" style="114" customWidth="1"/>
+    <col min="15395" max="15616" width="4.83203125" style="114"/>
+    <col min="15617" max="15650" width="4.83203125" style="114" customWidth="1"/>
+    <col min="15651" max="15872" width="4.83203125" style="114"/>
+    <col min="15873" max="15906" width="4.83203125" style="114" customWidth="1"/>
+    <col min="15907" max="16128" width="4.83203125" style="114"/>
+    <col min="16129" max="16162" width="4.83203125" style="114" customWidth="1"/>
+    <col min="16163" max="16384" width="4.83203125" style="114"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="228" t="s">
         <v>0</v>
       </c>
@@ -8027,7 +7878,7 @@
       <c r="AH1" s="247"/>
       <c r="AI1" s="248"/>
     </row>
-    <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="228" t="s">
         <v>3</v>
       </c>
@@ -8077,7 +7928,7 @@
       <c r="AH2" s="247"/>
       <c r="AI2" s="248"/>
     </row>
-    <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="228" t="s">
         <v>5</v>
       </c>
@@ -8125,7 +7976,7 @@
       <c r="AH3" s="247"/>
       <c r="AI3" s="248"/>
     </row>
-    <row r="4" spans="1:35" s="107" customFormat="1" ht="19.5" customHeight="1">
+    <row r="4" spans="1:35" s="107" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="105"/>
       <c r="B4" s="105"/>
       <c r="C4" s="105"/>
@@ -8162,7 +8013,7 @@
       <c r="AH4" s="105"/>
       <c r="AI4" s="105"/>
     </row>
-    <row r="5" spans="1:35" s="107" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:35" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="105"/>
       <c r="B5" s="105"/>
       <c r="C5" s="105"/>
@@ -8180,7 +8031,7 @@
       <c r="O5" s="105"/>
       <c r="P5" s="105"/>
       <c r="Q5" s="108" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R5" s="105"/>
       <c r="S5" s="105"/>
@@ -8201,7 +8052,7 @@
       <c r="AH5" s="105"/>
       <c r="AI5" s="105"/>
     </row>
-    <row r="6" spans="1:35" s="107" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:35" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="105"/>
       <c r="B6" s="105"/>
       <c r="C6" s="105"/>
@@ -8238,10 +8089,10 @@
       <c r="AH6" s="105"/>
       <c r="AI6" s="105"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="69"/>
       <c r="B7" s="83" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="83"/>
       <c r="D7" s="109"/>
@@ -8277,11 +8128,11 @@
       <c r="AH7" s="112"/>
       <c r="AI7" s="113"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="69"/>
       <c r="B8" s="83"/>
       <c r="C8" s="83" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D8" s="109"/>
       <c r="E8" s="109"/>
@@ -8316,11 +8167,11 @@
       <c r="AH8" s="116"/>
       <c r="AI8" s="113"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="69"/>
       <c r="B9" s="109"/>
       <c r="C9" s="83" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D9" s="109"/>
       <c r="E9" s="109"/>
@@ -8355,7 +8206,7 @@
       <c r="AH9" s="117"/>
       <c r="AI9" s="69"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="69"/>
       <c r="B10" s="109"/>
       <c r="C10" s="109"/>
@@ -8392,7 +8243,7 @@
       <c r="AH10" s="112"/>
       <c r="AI10" s="113"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="69"/>
       <c r="B11" s="54" t="s">
         <v>47</v>
@@ -8431,7 +8282,7 @@
       <c r="AH11" s="112"/>
       <c r="AI11" s="113"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="69"/>
       <c r="B12" s="109"/>
       <c r="C12" s="54" t="s">
@@ -8470,7 +8321,7 @@
       <c r="AH12" s="112"/>
       <c r="AI12" s="113"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="69"/>
       <c r="B13" s="109"/>
       <c r="C13" s="69" t="s">
@@ -8504,7 +8355,7 @@
       <c r="AH13" s="112"/>
       <c r="AI13" s="113"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="69"/>
       <c r="B14" s="113"/>
       <c r="C14" s="54" t="s">
@@ -8543,11 +8394,11 @@
       <c r="AH14" s="112"/>
       <c r="AI14" s="113"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="69"/>
       <c r="B15" s="54"/>
       <c r="C15" s="69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="109"/>
       <c r="E15" s="109"/>
@@ -8582,11 +8433,11 @@
       <c r="AH15" s="112"/>
       <c r="AI15" s="113"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="69"/>
       <c r="B16" s="54"/>
       <c r="C16" s="54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H16" s="109"/>
       <c r="I16" s="105"/>
@@ -8617,7 +8468,7 @@
       <c r="AH16" s="112"/>
       <c r="AI16" s="113"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="69"/>
       <c r="B17" s="105"/>
       <c r="C17" s="54"/>
@@ -8654,7 +8505,7 @@
       <c r="AH17" s="112"/>
       <c r="AI17" s="113"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="69"/>
       <c r="B18" s="105"/>
       <c r="C18" s="69"/>
@@ -8691,7 +8542,7 @@
       <c r="AH18" s="112"/>
       <c r="AI18" s="113"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="69"/>
       <c r="B19" s="105"/>
       <c r="C19" s="69"/>
@@ -8728,7 +8579,7 @@
       <c r="AH19" s="112"/>
       <c r="AI19" s="113"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="69"/>
       <c r="B20" s="105"/>
       <c r="C20" s="69"/>
@@ -8765,7 +8616,7 @@
       <c r="AH20" s="112"/>
       <c r="AI20" s="113"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="69"/>
       <c r="B21" s="105"/>
       <c r="C21" s="69"/>
@@ -8802,7 +8653,7 @@
       <c r="AH21" s="112"/>
       <c r="AI21" s="113"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="69"/>
       <c r="B22" s="105"/>
       <c r="C22" s="69"/>
@@ -8839,7 +8690,7 @@
       <c r="AH22" s="112"/>
       <c r="AI22" s="113"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="69"/>
       <c r="B23" s="118"/>
       <c r="C23" s="109"/>
@@ -8876,7 +8727,7 @@
       <c r="AH23" s="112"/>
       <c r="AI23" s="113"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="69"/>
       <c r="B24" s="105"/>
       <c r="C24" s="69"/>
@@ -8913,7 +8764,7 @@
       <c r="AH24" s="112"/>
       <c r="AI24" s="113"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="69"/>
       <c r="B25" s="105"/>
       <c r="C25" s="69"/>
@@ -8950,7 +8801,7 @@
       <c r="AH25" s="112"/>
       <c r="AI25" s="113"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="69"/>
       <c r="B26" s="105"/>
       <c r="C26" s="69"/>
@@ -8987,7 +8838,7 @@
       <c r="AH26" s="112"/>
       <c r="AI26" s="113"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="69"/>
       <c r="B27" s="105"/>
       <c r="C27" s="69"/>
@@ -9024,7 +8875,7 @@
       <c r="AH27" s="112"/>
       <c r="AI27" s="113"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="69"/>
       <c r="B28" s="105"/>
       <c r="C28" s="69"/>
@@ -9061,7 +8912,7 @@
       <c r="AH28" s="112"/>
       <c r="AI28" s="113"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="69"/>
       <c r="B29" s="105"/>
       <c r="C29" s="69"/>
@@ -9098,7 +8949,7 @@
       <c r="AH29" s="112"/>
       <c r="AI29" s="113"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="119"/>
       <c r="B30" s="105"/>
       <c r="C30" s="105"/>
@@ -9135,7 +8986,7 @@
       <c r="AH30" s="122"/>
       <c r="AI30" s="123"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="119"/>
       <c r="B31" s="105"/>
       <c r="C31" s="106"/>
@@ -9172,7 +9023,7 @@
       <c r="AH31" s="122"/>
       <c r="AI31" s="123"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="119"/>
       <c r="B32" s="126"/>
       <c r="C32" s="69"/>
@@ -9209,7 +9060,7 @@
       <c r="AH32" s="122"/>
       <c r="AI32" s="123"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="119"/>
       <c r="B33" s="126"/>
       <c r="C33" s="69"/>
@@ -9246,7 +9097,7 @@
       <c r="AH33" s="122"/>
       <c r="AI33" s="123"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="119"/>
       <c r="B34" s="126"/>
       <c r="C34" s="69"/>
@@ -9283,7 +9134,7 @@
       <c r="AH34" s="122"/>
       <c r="AI34" s="123"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="119"/>
       <c r="B35" s="126"/>
       <c r="C35" s="69"/>
@@ -9320,7 +9171,7 @@
       <c r="AH35" s="122"/>
       <c r="AI35" s="123"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="119"/>
       <c r="B36" s="119"/>
       <c r="C36" s="119"/>
@@ -9357,7 +9208,7 @@
       <c r="AH36" s="131"/>
       <c r="AI36" s="119"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="132"/>
       <c r="E37" s="132"/>
       <c r="F37" s="132"/>
@@ -9389,7 +9240,7 @@
       <c r="AH37" s="139"/>
       <c r="AI37" s="135"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1">
+    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S38" s="135"/>
       <c r="T38" s="135"/>
       <c r="U38" s="136"/>
@@ -9408,7 +9259,7 @@
       <c r="AH38" s="142"/>
       <c r="AI38" s="135"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q39" s="143"/>
       <c r="S39" s="135"/>
       <c r="T39" s="136"/>
@@ -9428,7 +9279,7 @@
       <c r="AH39" s="142"/>
       <c r="AI39" s="135"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1">
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S40" s="135"/>
       <c r="T40" s="135"/>
       <c r="U40" s="135"/>
@@ -9447,7 +9298,7 @@
       <c r="AH40" s="142"/>
       <c r="AI40" s="135"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J41" s="132"/>
       <c r="K41" s="132"/>
       <c r="L41" s="132"/>
@@ -9461,37 +9312,37 @@
       <c r="AH41" s="142"/>
       <c r="AI41" s="135"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE42" s="135"/>
       <c r="AF42" s="140"/>
       <c r="AG42" s="141"/>
       <c r="AH42" s="142"/>
       <c r="AI42" s="135"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1">
+    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE43" s="135"/>
       <c r="AF43" s="140"/>
       <c r="AG43" s="140"/>
       <c r="AH43" s="142"/>
       <c r="AI43" s="135"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1">
+    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="132"/>
       <c r="AF44" s="144"/>
       <c r="AG44" s="144"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="132"/>
       <c r="AG45" s="144"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF46" s="144"/>
       <c r="AG46" s="144"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG47" s="144"/>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1">
+    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S48" s="132"/>
       <c r="T48" s="132"/>
       <c r="V48" s="132"/>
@@ -9504,7 +9355,7 @@
       <c r="AC48" s="132"/>
       <c r="AD48" s="132"/>
     </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1">
+    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R49" s="132"/>
       <c r="S49" s="132"/>
       <c r="T49" s="132"/>
@@ -9519,10 +9370,10 @@
       <c r="AD49" s="132"/>
       <c r="AG49" s="144"/>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1">
+    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R50" s="132"/>
     </row>
-    <row r="51" spans="1:34" s="132" customFormat="1" ht="15" customHeight="1">
+    <row r="51" spans="1:34" s="132" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="114"/>
       <c r="B51" s="114"/>
       <c r="C51" s="114"/>
@@ -9555,7 +9406,7 @@
       <c r="AD51" s="114"/>
       <c r="AH51" s="143"/>
     </row>
-    <row r="52" spans="1:34" s="132" customFormat="1" ht="15" customHeight="1">
+    <row r="52" spans="1:34" s="132" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="114"/>
       <c r="B52" s="114"/>
       <c r="C52" s="114"/>
@@ -9612,29 +9463,28 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AL34"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="32" width="4.77734375" style="54"/>
-    <col min="33" max="33" width="4.77734375" style="54" customWidth="1"/>
-    <col min="34" max="16384" width="4.77734375" style="54"/>
+    <col min="1" max="32" width="4.83203125" style="54"/>
+    <col min="33" max="33" width="4.83203125" style="54" customWidth="1"/>
+    <col min="34" max="16384" width="4.83203125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="145" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="1" spans="1:38" s="145" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="258" t="s">
         <v>6</v>
       </c>
@@ -9689,7 +9539,7 @@
       <c r="AH1" s="272"/>
       <c r="AI1" s="273"/>
     </row>
-    <row r="2" spans="1:38" s="145" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="2" spans="1:38" s="145" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="258" t="s">
         <v>9</v>
       </c>
@@ -9739,7 +9589,7 @@
       <c r="AH2" s="272"/>
       <c r="AI2" s="273"/>
     </row>
-    <row r="3" spans="1:38" s="145" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="3" spans="1:38" s="145" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="258" t="s">
         <v>11</v>
       </c>
@@ -9787,7 +9637,7 @@
       <c r="AH3" s="272"/>
       <c r="AI3" s="273"/>
     </row>
-    <row r="4" spans="1:38" ht="12" customHeight="1">
+    <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -9824,10 +9674,10 @@
       <c r="AH4" s="39"/>
       <c r="AI4" s="39"/>
     </row>
-    <row r="5" spans="1:38" ht="12" customHeight="1">
+    <row r="5" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39"/>
       <c r="B5" s="146" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
@@ -9863,11 +9713,11 @@
       <c r="AH5" s="39"/>
       <c r="AI5" s="39"/>
     </row>
-    <row r="6" spans="1:38" ht="12" customHeight="1">
+    <row r="6" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="146" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D6" s="39"/>
       <c r="E6" s="39"/>
@@ -9901,7 +9751,7 @@
       <c r="AG6" s="39"/>
       <c r="AH6" s="39"/>
     </row>
-    <row r="7" spans="1:38" ht="12" customHeight="1">
+    <row r="7" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -9937,18 +9787,18 @@
       <c r="AG7" s="39"/>
       <c r="AH7" s="39"/>
     </row>
-    <row r="8" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1">
+    <row r="8" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
       <c r="D8" s="275" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E8" s="276"/>
       <c r="F8" s="276"/>
       <c r="G8" s="277"/>
       <c r="H8" s="274" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I8" s="274"/>
       <c r="J8" s="274"/>
@@ -9977,18 +9827,18 @@
       <c r="AG8" s="274"/>
       <c r="AH8" s="274"/>
     </row>
-    <row r="9" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1">
+    <row r="9" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
       <c r="D9" s="275" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E9" s="276"/>
       <c r="F9" s="276"/>
       <c r="G9" s="277"/>
       <c r="H9" s="270" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I9" s="270"/>
       <c r="J9" s="270"/>
@@ -10017,18 +9867,18 @@
       <c r="AG9" s="270"/>
       <c r="AH9" s="270"/>
     </row>
-    <row r="10" spans="1:38" ht="12" customHeight="1">
+    <row r="10" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
       <c r="D10" s="278" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E10" s="279"/>
       <c r="F10" s="279"/>
       <c r="G10" s="280"/>
       <c r="H10" s="147" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I10" s="148"/>
       <c r="J10" s="148"/>
@@ -10057,18 +9907,18 @@
       <c r="AG10" s="148"/>
       <c r="AH10" s="149"/>
     </row>
-    <row r="11" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1">
+    <row r="11" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
       <c r="D11" s="275" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E11" s="276"/>
       <c r="F11" s="276"/>
       <c r="G11" s="277"/>
       <c r="H11" s="274" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I11" s="274"/>
       <c r="J11" s="274"/>
@@ -10097,18 +9947,18 @@
       <c r="AG11" s="274"/>
       <c r="AH11" s="274"/>
     </row>
-    <row r="12" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1">
+    <row r="12" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
       <c r="D12" s="275" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E12" s="276"/>
       <c r="F12" s="276"/>
       <c r="G12" s="277"/>
       <c r="H12" s="270" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I12" s="270"/>
       <c r="J12" s="270"/>
@@ -10137,18 +9987,18 @@
       <c r="AG12" s="270"/>
       <c r="AH12" s="270"/>
     </row>
-    <row r="13" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1">
+    <row r="13" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
       <c r="D13" s="275" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" s="276"/>
       <c r="F13" s="276"/>
       <c r="G13" s="277"/>
       <c r="H13" s="270" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I13" s="270"/>
       <c r="J13" s="270"/>
@@ -10177,18 +10027,18 @@
       <c r="AG13" s="270"/>
       <c r="AH13" s="270"/>
     </row>
-    <row r="14" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1">
+    <row r="14" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
       <c r="D14" s="275" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E14" s="276"/>
       <c r="F14" s="276"/>
       <c r="G14" s="277"/>
       <c r="H14" s="270" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I14" s="270"/>
       <c r="J14" s="270"/>
@@ -10217,18 +10067,18 @@
       <c r="AG14" s="270"/>
       <c r="AH14" s="270"/>
     </row>
-    <row r="15" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1">
+    <row r="15" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
       <c r="D15" s="275" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E15" s="276"/>
       <c r="F15" s="276"/>
       <c r="G15" s="277"/>
       <c r="H15" s="150" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I15" s="151"/>
       <c r="J15" s="151"/>
@@ -10257,7 +10107,7 @@
       <c r="AG15" s="151"/>
       <c r="AH15" s="152"/>
     </row>
-    <row r="16" spans="1:38" ht="12" customHeight="1">
+    <row r="16" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="153"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -10297,7 +10147,7 @@
       <c r="AK16" s="154"/>
       <c r="AL16" s="154"/>
     </row>
-    <row r="17" spans="1:35" ht="12" customHeight="1">
+    <row r="17" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
@@ -10334,7 +10184,7 @@
       <c r="AH17" s="51"/>
       <c r="AI17" s="39"/>
     </row>
-    <row r="18" spans="1:35" ht="12" customHeight="1">
+    <row r="18" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
@@ -10371,7 +10221,7 @@
       <c r="AH18" s="51"/>
       <c r="AI18" s="39"/>
     </row>
-    <row r="19" spans="1:35" s="158" customFormat="1" ht="12" customHeight="1">
+    <row r="19" spans="1:35" s="158" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="155"/>
       <c r="B19" s="156"/>
       <c r="C19" s="156"/>
@@ -10404,7 +10254,7 @@
       <c r="AD19" s="282"/>
       <c r="AE19" s="157"/>
     </row>
-    <row r="20" spans="1:35" ht="12" customHeight="1">
+    <row r="20" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
@@ -10441,7 +10291,7 @@
       <c r="AH20" s="39"/>
       <c r="AI20" s="39"/>
     </row>
-    <row r="21" spans="1:35" ht="12" customHeight="1">
+    <row r="21" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
@@ -10478,7 +10328,7 @@
       <c r="AH21" s="39"/>
       <c r="AI21" s="39"/>
     </row>
-    <row r="22" spans="1:35" ht="12" customHeight="1">
+    <row r="22" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
@@ -10515,7 +10365,7 @@
       <c r="AH22" s="39"/>
       <c r="AI22" s="39"/>
     </row>
-    <row r="23" spans="1:35" ht="12" customHeight="1">
+    <row r="23" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
@@ -10552,7 +10402,7 @@
       <c r="AH23" s="39"/>
       <c r="AI23" s="39"/>
     </row>
-    <row r="24" spans="1:35" ht="12" customHeight="1">
+    <row r="24" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
@@ -10589,7 +10439,7 @@
       <c r="AH24" s="39"/>
       <c r="AI24" s="39"/>
     </row>
-    <row r="25" spans="1:35" ht="12" customHeight="1">
+    <row r="25" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
@@ -10626,7 +10476,7 @@
       <c r="AH25" s="39"/>
       <c r="AI25" s="39"/>
     </row>
-    <row r="26" spans="1:35" ht="12" customHeight="1">
+    <row r="26" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
@@ -10663,7 +10513,7 @@
       <c r="AH26" s="39"/>
       <c r="AI26" s="39"/>
     </row>
-    <row r="27" spans="1:35" ht="12" customHeight="1">
+    <row r="27" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39"/>
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
@@ -10700,7 +10550,7 @@
       <c r="AH27" s="39"/>
       <c r="AI27" s="39"/>
     </row>
-    <row r="28" spans="1:35" ht="12" customHeight="1">
+    <row r="28" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
@@ -10737,7 +10587,7 @@
       <c r="AH28" s="39"/>
       <c r="AI28" s="39"/>
     </row>
-    <row r="29" spans="1:35" ht="12" customHeight="1">
+    <row r="29" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
@@ -10774,7 +10624,7 @@
       <c r="AH29" s="39"/>
       <c r="AI29" s="39"/>
     </row>
-    <row r="30" spans="1:35" ht="12" customHeight="1">
+    <row r="30" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39"/>
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
@@ -10811,7 +10661,7 @@
       <c r="AH30" s="39"/>
       <c r="AI30" s="39"/>
     </row>
-    <row r="31" spans="1:35" ht="12" customHeight="1">
+    <row r="31" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39"/>
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
@@ -10848,9 +10698,9 @@
       <c r="AH31" s="39"/>
       <c r="AI31" s="39"/>
     </row>
-    <row r="32" spans="1:35" ht="12" customHeight="1"/>
-    <row r="33" ht="12" customHeight="1"/>
-    <row r="34" ht="12" customHeight="1"/>
+    <row r="32" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="33">
     <mergeCell ref="D10:G10"/>
@@ -10894,27 +10744,26 @@
   <headerFooter>
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI26"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="4.77734375" style="38"/>
+    <col min="1" max="16384" width="4.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="258" t="s">
         <v>12</v>
       </c>
@@ -10969,7 +10818,7 @@
       <c r="AH1" s="272"/>
       <c r="AI1" s="273"/>
     </row>
-    <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="258" t="s">
         <v>15</v>
       </c>
@@ -11019,7 +10868,7 @@
       <c r="AH2" s="272"/>
       <c r="AI2" s="273"/>
     </row>
-    <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="258" t="s">
         <v>17</v>
       </c>
@@ -11067,19 +10916,18 @@
       <c r="AH3" s="272"/>
       <c r="AI3" s="273"/>
     </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1"/>
-    <row r="5" spans="1:35" ht="12" customHeight="1">
+    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="38" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" ht="12" customHeight="1"/>
-    <row r="14" spans="1:35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="I14" s="38" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="22:22"/>
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="AG1:AI1"/>
@@ -11108,7 +10956,6 @@
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -11123,12 +10970,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="4.77734375" style="38"/>
+    <col min="1" max="16384" width="4.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="1" spans="1:38" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="258" t="s">
         <v>18</v>
       </c>
@@ -11186,7 +11033,7 @@
       <c r="AK1" s="35"/>
       <c r="AL1" s="36"/>
     </row>
-    <row r="2" spans="1:38" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="2" spans="1:38" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="258" t="s">
         <v>21</v>
       </c>
@@ -11239,7 +11086,7 @@
       <c r="AK2" s="35"/>
       <c r="AL2" s="35"/>
     </row>
-    <row r="3" spans="1:38" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="3" spans="1:38" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="258" t="s">
         <v>23</v>
       </c>
@@ -11290,8 +11137,8 @@
       <c r="AK3" s="35"/>
       <c r="AL3" s="35"/>
     </row>
-    <row r="4" spans="1:38" ht="12" customHeight="1"/>
-    <row r="5" spans="1:38" ht="12" customHeight="1">
+    <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="39" t="s">
         <v>47</v>
       </c>
@@ -11328,7 +11175,7 @@
       <c r="AG5" s="39"/>
       <c r="AH5" s="39"/>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B6" s="39"/>
       <c r="C6" s="39" t="s">
         <v>48</v>
@@ -11365,7 +11212,7 @@
       <c r="AG6" s="39"/>
       <c r="AH6" s="39"/>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
       <c r="D7" s="40"/>
@@ -11400,7 +11247,7 @@
       <c r="AG7" s="39"/>
       <c r="AH7" s="39"/>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
       <c r="D8" s="303" t="s">
@@ -11447,7 +11294,7 @@
       <c r="AG8" s="313"/>
       <c r="AH8" s="313"/>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
       <c r="D9" s="304"/>
@@ -11492,7 +11339,7 @@
       <c r="AG9" s="313"/>
       <c r="AH9" s="313"/>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
       <c r="D10" s="42">
@@ -11545,7 +11392,7 @@
       <c r="AG10" s="293"/>
       <c r="AH10" s="294"/>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
       <c r="D11" s="42">
@@ -11598,7 +11445,7 @@
       <c r="AG11" s="293"/>
       <c r="AH11" s="294"/>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
       <c r="D12" s="42">
@@ -11651,7 +11498,7 @@
       <c r="AG12" s="293"/>
       <c r="AH12" s="294"/>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
       <c r="D13" s="46"/>
@@ -11686,7 +11533,7 @@
       <c r="AG13" s="50"/>
       <c r="AH13" s="50"/>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
       <c r="D14" s="40"/>
@@ -11721,7 +11568,7 @@
       <c r="AG14" s="39"/>
       <c r="AH14" s="39"/>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B15" s="39"/>
       <c r="C15" s="38" t="s">
         <v>68</v>
@@ -11758,7 +11605,7 @@
       <c r="AG15" s="51"/>
       <c r="AH15" s="51"/>
     </row>
-    <row r="16" spans="1:38" s="52" customFormat="1">
+    <row r="16" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="39"/>
       <c r="C16" s="51"/>
       <c r="D16" s="51"/>
@@ -11793,7 +11640,7 @@
       <c r="AG16" s="51"/>
       <c r="AH16" s="51"/>
     </row>
-    <row r="17" spans="1:35" s="52" customFormat="1" ht="24.75" customHeight="1">
+    <row r="17" spans="1:35" s="52" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="39"/>
       <c r="C17" s="51"/>
       <c r="D17" s="53" t="s">
@@ -11834,7 +11681,7 @@
       <c r="AG17" s="290"/>
       <c r="AH17" s="291"/>
     </row>
-    <row r="18" spans="1:35" s="52" customFormat="1" ht="24" customHeight="1">
+    <row r="18" spans="1:35" s="52" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="39"/>
       <c r="C18" s="51"/>
       <c r="D18" s="42">
@@ -11875,7 +11722,7 @@
       <c r="AG18" s="293"/>
       <c r="AH18" s="294"/>
     </row>
-    <row r="19" spans="1:35" ht="24" customHeight="1">
+    <row r="19" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="54"/>
       <c r="C19" s="51"/>
       <c r="D19" s="42">
@@ -11916,7 +11763,7 @@
       <c r="AG19" s="293"/>
       <c r="AH19" s="294"/>
     </row>
-    <row r="20" spans="1:35" ht="24" customHeight="1">
+    <row r="20" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="54"/>
       <c r="C20" s="51"/>
       <c r="D20" s="42">
@@ -11957,7 +11804,7 @@
       <c r="AG20" s="293"/>
       <c r="AH20" s="294"/>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B21" s="55"/>
       <c r="C21" s="51"/>
       <c r="D21" s="56"/>
@@ -11992,7 +11839,7 @@
       <c r="AG21" s="51"/>
       <c r="AH21" s="51"/>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B22" s="55"/>
       <c r="C22" s="55"/>
       <c r="D22" s="55"/>
@@ -12027,7 +11874,7 @@
       <c r="AG22" s="51"/>
       <c r="AH22" s="51"/>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B23" s="55"/>
       <c r="C23" s="51" t="s">
         <v>76</v>
@@ -12064,7 +11911,7 @@
       <c r="AG23" s="61"/>
       <c r="AH23" s="61"/>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B24" s="55"/>
       <c r="C24" s="51"/>
       <c r="D24" s="60" t="s">
@@ -12101,7 +11948,7 @@
       <c r="AG24" s="61"/>
       <c r="AH24" s="61"/>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B25" s="55"/>
       <c r="C25" s="51"/>
       <c r="D25" s="60"/>
@@ -12136,7 +11983,7 @@
       <c r="AG25" s="61"/>
       <c r="AH25" s="61"/>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B26" s="55"/>
       <c r="C26" s="51"/>
       <c r="E26" s="62" t="s">
@@ -12163,10 +12010,10 @@
       <c r="T26" s="64"/>
       <c r="U26" s="65"/>
       <c r="V26" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="W26" s="63" t="s">
         <v>80</v>
-      </c>
-      <c r="W26" s="63" t="s">
-        <v>81</v>
       </c>
       <c r="X26" s="64"/>
       <c r="Y26" s="64"/>
@@ -12178,7 +12025,7 @@
       <c r="AG26" s="61"/>
       <c r="AH26" s="68"/>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="69"/>
       <c r="B27" s="55"/>
       <c r="C27" s="51"/>
@@ -12187,7 +12034,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G27" s="72"/>
       <c r="H27" s="72"/>
@@ -12195,7 +12042,7 @@
       <c r="J27" s="72"/>
       <c r="K27" s="73"/>
       <c r="L27" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M27" s="72"/>
       <c r="N27" s="72"/>
@@ -12208,7 +12055,7 @@
       <c r="U27" s="73"/>
       <c r="V27" s="71"/>
       <c r="W27" s="74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X27" s="75"/>
       <c r="Y27" s="75"/>
@@ -12220,7 +12067,7 @@
       <c r="AG27" s="61"/>
       <c r="AH27" s="68"/>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="69"/>
       <c r="B28" s="54"/>
       <c r="C28" s="51"/>
@@ -12229,7 +12076,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G28" s="75"/>
       <c r="H28" s="75"/>
@@ -12237,7 +12084,7 @@
       <c r="J28" s="75"/>
       <c r="K28" s="79"/>
       <c r="L28" s="74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M28" s="75"/>
       <c r="N28" s="80"/>
@@ -12250,7 +12097,7 @@
       <c r="U28" s="79"/>
       <c r="V28" s="74"/>
       <c r="W28" s="74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X28" s="75"/>
       <c r="Y28" s="75"/>
@@ -12262,11 +12109,11 @@
       <c r="AG28" s="61"/>
       <c r="AH28" s="68"/>
     </row>
-    <row r="29" spans="1:35" s="81" customFormat="1">
+    <row r="29" spans="1:35" s="81" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C29" s="82"/>
       <c r="D29" s="82"/>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="69"/>
       <c r="B30" s="54"/>
       <c r="C30" s="51"/>
@@ -12302,11 +12149,11 @@
       <c r="AG30" s="61"/>
       <c r="AH30" s="68"/>
     </row>
-    <row r="31" spans="1:35" s="81" customFormat="1">
+    <row r="31" spans="1:35" s="81" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C31" s="82"/>
       <c r="D31" s="82"/>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="69"/>
       <c r="B32" s="69"/>
       <c r="C32" s="69"/>
@@ -12343,11 +12190,11 @@
       <c r="AH32" s="69"/>
       <c r="AI32" s="69"/>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="69"/>
       <c r="B33" s="69"/>
       <c r="C33" s="69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D33" s="69"/>
       <c r="E33" s="69"/>
@@ -12382,12 +12229,12 @@
       <c r="AH33" s="69"/>
       <c r="AI33" s="69"/>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" s="69"/>
       <c r="B34" s="69"/>
       <c r="C34" s="69"/>
       <c r="D34" s="69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E34" s="69"/>
       <c r="F34" s="69"/>
@@ -12421,7 +12268,7 @@
       <c r="AH34" s="69"/>
       <c r="AI34" s="69"/>
     </row>
-    <row r="35" spans="1:35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="69"/>
       <c r="B35" s="69"/>
       <c r="C35" s="69"/>
@@ -12458,7 +12305,7 @@
       <c r="AH35" s="69"/>
       <c r="AI35" s="69"/>
     </row>
-    <row r="36" spans="1:35" ht="40.5" customHeight="1">
+    <row r="36" spans="1:35" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="69"/>
       <c r="B36" s="69"/>
       <c r="C36" s="69"/>
@@ -12467,7 +12314,7 @@
         <v>37</v>
       </c>
       <c r="F36" s="319" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G36" s="320"/>
       <c r="H36" s="320"/>
@@ -12475,7 +12322,7 @@
       <c r="J36" s="320"/>
       <c r="K36" s="321"/>
       <c r="L36" s="319" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M36" s="320"/>
       <c r="N36" s="320"/>
@@ -12487,18 +12334,18 @@
       <c r="T36" s="320"/>
       <c r="U36" s="321"/>
       <c r="V36" s="322" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W36" s="323"/>
       <c r="X36" s="324"/>
       <c r="Y36" s="322" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z36" s="323"/>
       <c r="AA36" s="323"/>
       <c r="AB36" s="324"/>
       <c r="AC36" s="325" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AD36" s="326"/>
       <c r="AE36" s="326"/>
@@ -12507,7 +12354,7 @@
       <c r="AH36" s="69"/>
       <c r="AI36" s="69"/>
     </row>
-    <row r="37" spans="1:35" ht="50.25" customHeight="1">
+    <row r="37" spans="1:35" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="69"/>
       <c r="B37" s="69"/>
       <c r="C37" s="69"/>
@@ -12516,7 +12363,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="335" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G37" s="336"/>
       <c r="H37" s="336"/>
@@ -12524,7 +12371,7 @@
       <c r="J37" s="336"/>
       <c r="K37" s="337"/>
       <c r="L37" s="335" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M37" s="336"/>
       <c r="N37" s="336"/>
@@ -12536,12 +12383,12 @@
       <c r="T37" s="336"/>
       <c r="U37" s="337"/>
       <c r="V37" s="345" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W37" s="346"/>
       <c r="X37" s="347"/>
       <c r="Y37" s="342" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z37" s="343"/>
       <c r="AA37" s="343"/>
@@ -12556,7 +12403,7 @@
       <c r="AH37" s="69"/>
       <c r="AI37" s="69"/>
     </row>
-    <row r="38" spans="1:35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38" s="69"/>
       <c r="B38" s="69"/>
       <c r="C38" s="69"/>
@@ -12593,12 +12440,12 @@
       <c r="AH38" s="69"/>
       <c r="AI38" s="69"/>
     </row>
-    <row r="39" spans="1:35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" s="69"/>
       <c r="B39" s="69"/>
       <c r="C39" s="69"/>
       <c r="E39" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA39" s="69"/>
       <c r="AB39" s="69"/>
@@ -12610,7 +12457,7 @@
       <c r="AH39" s="69"/>
       <c r="AI39" s="69"/>
     </row>
-    <row r="40" spans="1:35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" s="69"/>
       <c r="B40" s="69"/>
       <c r="C40" s="69"/>
@@ -12622,12 +12469,12 @@
       <c r="H40" s="339"/>
       <c r="I40" s="339"/>
       <c r="J40" s="302" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K40" s="302"/>
       <c r="L40" s="302"/>
       <c r="M40" s="322" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N40" s="323"/>
       <c r="O40" s="323"/>
@@ -12636,7 +12483,7 @@
       <c r="R40" s="323"/>
       <c r="S40" s="324"/>
       <c r="T40" s="322" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U40" s="323"/>
       <c r="V40" s="323"/>
@@ -12649,24 +12496,24 @@
       <c r="AC40" s="323"/>
       <c r="AD40" s="324"/>
     </row>
-    <row r="41" spans="1:35" ht="11.25" customHeight="1">
+    <row r="41" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="69"/>
       <c r="B41" s="69"/>
       <c r="C41" s="69"/>
       <c r="E41" s="335" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F41" s="336"/>
       <c r="G41" s="336"/>
       <c r="H41" s="336"/>
       <c r="I41" s="336"/>
       <c r="J41" s="351" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K41" s="351"/>
       <c r="L41" s="351"/>
       <c r="M41" s="335" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N41" s="336"/>
       <c r="O41" s="336"/>
@@ -12675,7 +12522,7 @@
       <c r="R41" s="336"/>
       <c r="S41" s="337"/>
       <c r="T41" s="335" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U41" s="336"/>
       <c r="V41" s="336"/>
@@ -12688,7 +12535,7 @@
       <c r="AC41" s="336"/>
       <c r="AD41" s="337"/>
     </row>
-    <row r="42" spans="1:35" ht="11.25" customHeight="1">
+    <row r="42" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="69"/>
       <c r="B42" s="69"/>
       <c r="C42" s="69"/>
@@ -12719,7 +12566,7 @@
       <c r="AC42" s="86"/>
       <c r="AD42" s="86"/>
     </row>
-    <row r="43" spans="1:35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" s="69"/>
       <c r="B43" s="69"/>
       <c r="C43" s="69"/>
@@ -12733,12 +12580,12 @@
       <c r="AH43" s="69"/>
       <c r="AI43" s="69"/>
     </row>
-    <row r="44" spans="1:35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" s="69"/>
       <c r="B44" s="69"/>
       <c r="C44" s="69"/>
       <c r="D44" s="69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E44" s="69"/>
       <c r="F44" s="69"/>
@@ -12772,7 +12619,7 @@
       <c r="AH44" s="69"/>
       <c r="AI44" s="69"/>
     </row>
-    <row r="45" spans="1:35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" s="69"/>
       <c r="B45" s="69"/>
       <c r="C45" s="69"/>
@@ -12809,13 +12656,13 @@
       <c r="AH45" s="69"/>
       <c r="AI45" s="69"/>
     </row>
-    <row r="46" spans="1:35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" s="69"/>
       <c r="B46" s="69"/>
       <c r="C46" s="69"/>
       <c r="D46" s="69"/>
       <c r="E46" s="69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F46" s="69"/>
       <c r="G46" s="69"/>
@@ -12848,7 +12695,7 @@
       <c r="AH46" s="69"/>
       <c r="AI46" s="69"/>
     </row>
-    <row r="47" spans="1:35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" s="69"/>
       <c r="B47" s="69"/>
       <c r="C47" s="69"/>
@@ -12884,13 +12731,13 @@
       <c r="AH47" s="69"/>
       <c r="AI47" s="69"/>
     </row>
-    <row r="48" spans="1:35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" s="69"/>
       <c r="B48" s="69"/>
       <c r="C48" s="69"/>
       <c r="D48" s="69"/>
       <c r="E48" s="69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F48" s="69"/>
       <c r="G48" s="69"/>
@@ -12923,7 +12770,7 @@
       <c r="AH48" s="69"/>
       <c r="AI48" s="69"/>
     </row>
-    <row r="49" spans="1:35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" s="69"/>
       <c r="B49" s="69"/>
       <c r="C49" s="69"/>
@@ -12935,12 +12782,12 @@
       <c r="H49" s="339"/>
       <c r="I49" s="339"/>
       <c r="J49" s="302" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K49" s="302"/>
       <c r="L49" s="302"/>
       <c r="M49" s="322" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N49" s="323"/>
       <c r="O49" s="323"/>
@@ -12949,7 +12796,7 @@
       <c r="R49" s="323"/>
       <c r="S49" s="324"/>
       <c r="T49" s="322" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U49" s="323"/>
       <c r="V49" s="323"/>
@@ -12962,24 +12809,24 @@
       <c r="AC49" s="323"/>
       <c r="AD49" s="324"/>
     </row>
-    <row r="50" spans="1:35" ht="11.25" customHeight="1">
+    <row r="50" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="69"/>
       <c r="B50" s="69"/>
       <c r="C50" s="69"/>
       <c r="E50" s="335" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F50" s="336"/>
       <c r="G50" s="336"/>
       <c r="H50" s="336"/>
       <c r="I50" s="336"/>
       <c r="J50" s="351" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K50" s="351"/>
       <c r="L50" s="351"/>
       <c r="M50" s="335" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N50" s="336"/>
       <c r="O50" s="336"/>
@@ -12988,7 +12835,7 @@
       <c r="R50" s="336"/>
       <c r="S50" s="337"/>
       <c r="T50" s="335" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U50" s="336"/>
       <c r="V50" s="336"/>
@@ -13001,7 +12848,7 @@
       <c r="AC50" s="336"/>
       <c r="AD50" s="337"/>
     </row>
-    <row r="51" spans="1:35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" s="69"/>
       <c r="B51" s="69"/>
       <c r="C51" s="69"/>
@@ -13038,7 +12885,7 @@
       <c r="AH51" s="69"/>
       <c r="AI51" s="69"/>
     </row>
-    <row r="52" spans="1:35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" s="69"/>
       <c r="B52" s="69"/>
       <c r="C52" s="69"/>
@@ -13075,12 +12922,12 @@
       <c r="AH52" s="69"/>
       <c r="AI52" s="69"/>
     </row>
-    <row r="53" spans="1:35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" s="69"/>
       <c r="B53" s="69"/>
       <c r="C53" s="69"/>
       <c r="D53" s="69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E53" s="69"/>
       <c r="F53" s="69"/>
@@ -13114,7 +12961,7 @@
       <c r="AH53" s="69"/>
       <c r="AI53" s="69"/>
     </row>
-    <row r="54" spans="1:35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" s="69"/>
       <c r="B54" s="69"/>
       <c r="C54" s="69"/>
@@ -13151,13 +12998,13 @@
       <c r="AH54" s="69"/>
       <c r="AI54" s="69"/>
     </row>
-    <row r="55" spans="1:35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" s="69"/>
       <c r="B55" s="69"/>
       <c r="C55" s="69"/>
       <c r="D55" s="69"/>
       <c r="E55" s="367" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F55" s="368"/>
       <c r="G55" s="368"/>
@@ -13169,7 +13016,7 @@
       <c r="M55" s="368"/>
       <c r="N55" s="369"/>
       <c r="O55" s="370" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P55" s="371"/>
       <c r="Q55" s="371"/>
@@ -13192,7 +13039,7 @@
       <c r="AH55" s="69"/>
       <c r="AI55" s="69"/>
     </row>
-    <row r="56" spans="1:35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" s="69"/>
       <c r="B56" s="69"/>
       <c r="C56" s="69"/>
@@ -13210,7 +13057,7 @@
       <c r="M56" s="356"/>
       <c r="N56" s="357"/>
       <c r="O56" s="373" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P56" s="373"/>
       <c r="Q56" s="373"/>
@@ -13233,7 +13080,7 @@
       <c r="AH56" s="69"/>
       <c r="AI56" s="69"/>
     </row>
-    <row r="57" spans="1:35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" s="69"/>
       <c r="B57" s="69"/>
       <c r="C57" s="69"/>
@@ -13249,7 +13096,7 @@
       <c r="M57" s="359"/>
       <c r="N57" s="360"/>
       <c r="O57" s="373" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P57" s="373"/>
       <c r="Q57" s="373"/>
@@ -13272,7 +13119,7 @@
       <c r="AH57" s="69"/>
       <c r="AI57" s="69"/>
     </row>
-    <row r="58" spans="1:35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" s="69"/>
       <c r="B58" s="69"/>
       <c r="C58" s="69"/>
@@ -13288,7 +13135,7 @@
       <c r="M58" s="362"/>
       <c r="N58" s="363"/>
       <c r="O58" s="364" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P58" s="365"/>
       <c r="Q58" s="365"/>
@@ -13311,13 +13158,13 @@
       <c r="AH58" s="69"/>
       <c r="AI58" s="69"/>
     </row>
-    <row r="59" spans="1:35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" s="69"/>
       <c r="B59" s="69"/>
       <c r="C59" s="69"/>
       <c r="D59" s="69"/>
       <c r="E59" s="352" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F59" s="353"/>
       <c r="G59" s="353"/>
@@ -13350,7 +13197,7 @@
       <c r="AH59" s="69"/>
       <c r="AI59" s="69"/>
     </row>
-    <row r="60" spans="1:35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" s="69"/>
       <c r="B60" s="69"/>
       <c r="C60" s="69"/>
@@ -13387,26 +13234,26 @@
       <c r="AH60" s="69"/>
       <c r="AI60" s="69"/>
     </row>
-    <row r="61" spans="1:35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" s="69"/>
       <c r="B61" s="69"/>
       <c r="C61" s="69"/>
       <c r="D61" s="69"/>
       <c r="E61" s="91"/>
       <c r="F61" s="92" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G61" s="92"/>
       <c r="H61" s="92"/>
       <c r="I61" s="92"/>
       <c r="J61" s="93"/>
       <c r="K61" s="93" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L61" s="92"/>
       <c r="M61" s="92"/>
       <c r="N61" s="92" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O61" s="92"/>
       <c r="P61" s="92"/>
@@ -13430,26 +13277,26 @@
       <c r="AH61" s="69"/>
       <c r="AI61" s="69"/>
     </row>
-    <row r="62" spans="1:35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" s="69"/>
       <c r="B62" s="69"/>
       <c r="C62" s="69"/>
       <c r="D62" s="69"/>
       <c r="E62" s="91"/>
       <c r="F62" s="92" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G62" s="92"/>
       <c r="H62" s="92"/>
       <c r="I62" s="92"/>
       <c r="J62" s="93"/>
       <c r="K62" s="93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L62" s="92"/>
       <c r="M62" s="92"/>
       <c r="N62" s="92" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O62" s="92"/>
       <c r="P62" s="92"/>
@@ -13473,7 +13320,7 @@
       <c r="AH62" s="69"/>
       <c r="AI62" s="69"/>
     </row>
-    <row r="63" spans="1:35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" s="69"/>
       <c r="B63" s="69"/>
       <c r="C63" s="69"/>
@@ -13510,7 +13357,7 @@
       <c r="AH63" s="69"/>
       <c r="AI63" s="69"/>
     </row>
-    <row r="64" spans="1:35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" s="69"/>
       <c r="B64" s="69"/>
       <c r="C64" s="69"/>
@@ -13547,13 +13394,13 @@
       <c r="AH64" s="69"/>
       <c r="AI64" s="69"/>
     </row>
-    <row r="65" spans="1:35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" s="69"/>
       <c r="B65" s="69"/>
       <c r="C65" s="69"/>
       <c r="D65" s="69"/>
       <c r="E65" s="92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F65" s="92"/>
       <c r="G65" s="92"/>
@@ -13586,13 +13433,13 @@
       <c r="AH65" s="69"/>
       <c r="AI65" s="69"/>
     </row>
-    <row r="66" spans="1:35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66" s="69"/>
       <c r="B66" s="69"/>
       <c r="C66" s="69"/>
       <c r="D66" s="69"/>
       <c r="E66" s="92" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F66" s="92"/>
       <c r="G66" s="92"/>
@@ -13625,7 +13472,7 @@
       <c r="AH66" s="69"/>
       <c r="AI66" s="69"/>
     </row>
-    <row r="67" spans="1:35">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A67" s="69"/>
       <c r="B67" s="69"/>
       <c r="C67" s="69"/>
@@ -13662,12 +13509,12 @@
       <c r="AH67" s="69"/>
       <c r="AI67" s="69"/>
     </row>
-    <row r="68" spans="1:35">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68" s="69"/>
       <c r="B68" s="69"/>
       <c r="C68" s="69"/>
       <c r="D68" s="69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E68" s="69"/>
       <c r="F68" s="69"/>
@@ -13701,7 +13548,7 @@
       <c r="AH68" s="69"/>
       <c r="AI68" s="69"/>
     </row>
-    <row r="69" spans="1:35">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A69" s="69"/>
       <c r="B69" s="69"/>
       <c r="C69" s="69"/>
@@ -13738,13 +13585,13 @@
       <c r="AH69" s="69"/>
       <c r="AI69" s="69"/>
     </row>
-    <row r="70" spans="1:35">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70" s="69"/>
       <c r="B70" s="69"/>
       <c r="C70" s="69"/>
       <c r="D70" s="69"/>
       <c r="E70" s="69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F70" s="69"/>
       <c r="G70" s="69"/>
@@ -13777,7 +13624,7 @@
       <c r="AH70" s="69"/>
       <c r="AI70" s="69"/>
     </row>
-    <row r="71" spans="1:35">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71" s="69"/>
       <c r="B71" s="69"/>
       <c r="C71" s="69"/>
@@ -13814,7 +13661,7 @@
       <c r="AH71" s="69"/>
       <c r="AI71" s="69"/>
     </row>
-    <row r="72" spans="1:35">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A72" s="69"/>
       <c r="B72" s="69"/>
       <c r="C72" s="69"/>
@@ -13851,7 +13698,7 @@
       <c r="AH72" s="69"/>
       <c r="AI72" s="69"/>
     </row>
-    <row r="73" spans="1:35">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A73" s="69"/>
       <c r="B73" s="69"/>
       <c r="C73" s="69"/>
@@ -13888,9 +13735,9 @@
       <c r="AH73" s="69"/>
       <c r="AI73" s="69"/>
     </row>
-    <row r="75" spans="1:35">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C75" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D75" s="39"/>
       <c r="E75" s="39"/>
@@ -13922,10 +13769,10 @@
       <c r="AE75" s="39"/>
       <c r="AF75" s="39"/>
     </row>
-    <row r="76" spans="1:35">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C76" s="39"/>
       <c r="D76" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E76" s="39"/>
       <c r="F76" s="39"/>
@@ -13956,7 +13803,7 @@
       <c r="AE76" s="39"/>
       <c r="AF76" s="39"/>
     </row>
-    <row r="77" spans="1:35">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C77" s="39"/>
       <c r="D77" s="39"/>
       <c r="E77" s="39"/>
@@ -13988,10 +13835,10 @@
       <c r="AE77" s="39"/>
       <c r="AF77" s="39"/>
     </row>
-    <row r="78" spans="1:35">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C78" s="39"/>
       <c r="E78" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F78" s="54"/>
       <c r="G78" s="54"/>
@@ -14021,7 +13868,7 @@
       <c r="AE78" s="39"/>
       <c r="AF78" s="39"/>
     </row>
-    <row r="79" spans="1:35">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C79" s="39"/>
       <c r="D79" s="54"/>
       <c r="E79" s="54"/>
@@ -14053,15 +13900,15 @@
       <c r="AE79" s="39"/>
       <c r="AF79" s="39"/>
     </row>
-    <row r="80" spans="1:35">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C80" s="39"/>
       <c r="D80" s="39"/>
       <c r="E80" s="328" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F80" s="328"/>
       <c r="G80" s="348" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H80" s="349"/>
       <c r="I80" s="349"/>
@@ -14069,7 +13916,7 @@
       <c r="K80" s="349"/>
       <c r="L80" s="350"/>
       <c r="M80" s="328" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N80" s="328"/>
       <c r="O80" s="348" t="s">
@@ -14095,7 +13942,7 @@
       <c r="AG80" s="349"/>
       <c r="AH80" s="350"/>
     </row>
-    <row r="81" spans="3:34">
+    <row r="81" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C81" s="39"/>
       <c r="D81" s="39"/>
       <c r="E81" s="39"/>
@@ -14127,7 +13974,7 @@
       <c r="AE81" s="39"/>
       <c r="AF81" s="39"/>
     </row>
-    <row r="82" spans="3:34">
+    <row r="82" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C82" s="39"/>
       <c r="D82" s="39"/>
       <c r="E82" s="39"/>
@@ -14159,10 +14006,10 @@
       <c r="AE82" s="39"/>
       <c r="AF82" s="39"/>
     </row>
-    <row r="83" spans="3:34">
+    <row r="83" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C83" s="39"/>
       <c r="D83" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E83" s="39"/>
       <c r="F83" s="39"/>
@@ -14193,7 +14040,7 @@
       <c r="AE83" s="39"/>
       <c r="AF83" s="39"/>
     </row>
-    <row r="84" spans="3:34">
+    <row r="84" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C84" s="39"/>
       <c r="D84" s="39"/>
       <c r="E84" s="39"/>
@@ -14225,26 +14072,26 @@
       <c r="AE84" s="39"/>
       <c r="AF84" s="39"/>
     </row>
-    <row r="85" spans="3:34">
+    <row r="85" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C85" s="39"/>
       <c r="D85" s="39"/>
       <c r="E85" s="340" t="s">
         <v>37</v>
       </c>
       <c r="F85" s="329" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G85" s="330"/>
       <c r="H85" s="330"/>
       <c r="I85" s="331"/>
       <c r="J85" s="329" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K85" s="330"/>
       <c r="L85" s="330"/>
       <c r="M85" s="331"/>
       <c r="N85" s="301" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O85" s="301"/>
       <c r="P85" s="301"/>
@@ -14255,7 +14102,7 @@
       <c r="U85" s="301"/>
       <c r="V85" s="301"/>
       <c r="W85" s="329" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X85" s="330"/>
       <c r="Y85" s="330"/>
@@ -14271,7 +14118,7 @@
       <c r="AG85" s="330"/>
       <c r="AH85" s="331"/>
     </row>
-    <row r="86" spans="3:34">
+    <row r="86" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C86" s="39"/>
       <c r="D86" s="54"/>
       <c r="E86" s="341"/>
@@ -14284,14 +14131,14 @@
       <c r="L86" s="333"/>
       <c r="M86" s="334"/>
       <c r="N86" s="301" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O86" s="301"/>
       <c r="P86" s="301"/>
       <c r="Q86" s="301"/>
       <c r="R86" s="301"/>
       <c r="S86" s="302" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T86" s="302"/>
       <c r="U86" s="302"/>
@@ -14309,20 +14156,20 @@
       <c r="AG86" s="333"/>
       <c r="AH86" s="334"/>
     </row>
-    <row r="87" spans="3:34">
+    <row r="87" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C87" s="39"/>
       <c r="D87" s="54"/>
       <c r="E87" s="104">
         <v>1</v>
       </c>
       <c r="F87" s="298" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G87" s="299"/>
       <c r="H87" s="299"/>
       <c r="I87" s="300"/>
       <c r="J87" s="298" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K87" s="299"/>
       <c r="L87" s="299"/>
@@ -14335,7 +14182,7 @@
       <c r="Q87" s="296"/>
       <c r="R87" s="296"/>
       <c r="S87" s="297" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T87" s="297"/>
       <c r="U87" s="297"/>
@@ -14353,20 +14200,20 @@
       <c r="AG87" s="285"/>
       <c r="AH87" s="286"/>
     </row>
-    <row r="88" spans="3:34">
+    <row r="88" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C88" s="39"/>
       <c r="D88" s="54"/>
       <c r="E88" s="104">
         <v>2</v>
       </c>
       <c r="F88" s="298" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G88" s="299"/>
       <c r="H88" s="299"/>
       <c r="I88" s="300"/>
       <c r="J88" s="298" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K88" s="299"/>
       <c r="L88" s="299"/>
@@ -14379,7 +14226,7 @@
       <c r="Q88" s="296"/>
       <c r="R88" s="296"/>
       <c r="S88" s="297" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T88" s="297"/>
       <c r="U88" s="297"/>
@@ -14397,20 +14244,20 @@
       <c r="AG88" s="285"/>
       <c r="AH88" s="286"/>
     </row>
-    <row r="89" spans="3:34">
+    <row r="89" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C89" s="39"/>
       <c r="D89" s="54"/>
       <c r="E89" s="104">
         <v>3</v>
       </c>
       <c r="F89" s="298" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G89" s="299"/>
       <c r="H89" s="299"/>
       <c r="I89" s="300"/>
       <c r="J89" s="298" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K89" s="299"/>
       <c r="L89" s="299"/>
@@ -14423,7 +14270,7 @@
       <c r="Q89" s="296"/>
       <c r="R89" s="296"/>
       <c r="S89" s="297" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T89" s="297"/>
       <c r="U89" s="297"/>
@@ -14441,7 +14288,7 @@
       <c r="AG89" s="285"/>
       <c r="AH89" s="286"/>
     </row>
-    <row r="90" spans="3:34">
+    <row r="90" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C90" s="39"/>
       <c r="D90" s="54"/>
       <c r="E90" s="104">
@@ -14477,7 +14324,7 @@
       <c r="AG90" s="285"/>
       <c r="AH90" s="286"/>
     </row>
-    <row r="91" spans="3:34">
+    <row r="91" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C91" s="39"/>
       <c r="D91" s="54"/>
       <c r="E91" s="104">
@@ -14669,45 +14516,45 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9.33203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="159" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="160" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="161" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="161" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="161" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="161" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="161" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="161" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="161" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
